--- a/App/backend/assets/images_to_upload/all_images.xlsx
+++ b/App/backend/assets/images_to_upload/all_images.xlsx
@@ -239,7 +239,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;&quot;($&quot;#,##0.00\);\-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,11 +268,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,10 +321,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,10 +344,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -412,10 +403,10 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -432,10 +423,10 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -452,10 +443,10 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -472,10 +463,10 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -492,10 +483,10 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -512,10 +503,10 @@
       <c r="C8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -532,10 +523,10 @@
       <c r="C9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -552,10 +543,10 @@
       <c r="C10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="0" t="s">
@@ -572,10 +563,10 @@
       <c r="C11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="0" t="s">
@@ -604,7 +595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -650,7 +641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -690,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -754,7 +745,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -806,7 +797,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
